--- a/Group_5_code_review.xlsx
+++ b/Group_5_code_review.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qnela\OneDrive\Documents\Edinburgh Napier\Software Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA52BD79-B382-4993-917F-866E38BE1147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{41EA897E-D666-4C61-93A2-B3E056C1E224}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,11 +410,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03068FD-A602-4351-8B32-C44E96549786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,7 +440,10 @@
         <v>40527786</v>
       </c>
       <c r="B4" s="2">
-        <v>25</v>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -449,7 +451,10 @@
         <v>40520885</v>
       </c>
       <c r="B5" s="2">
-        <v>25</v>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -457,7 +462,10 @@
         <v>40522091</v>
       </c>
       <c r="B6" s="2">
-        <v>25</v>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -465,7 +473,10 @@
         <v>40525180</v>
       </c>
       <c r="B7" s="2">
-        <v>25</v>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C7" s="2">
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -473,7 +484,10 @@
         <v>40595018</v>
       </c>
       <c r="B8" s="2">
-        <v>25</v>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -481,7 +495,10 @@
         <v>40580195</v>
       </c>
       <c r="B9" s="2">
-        <v>25</v>
+        <v>16.670000000000002</v>
+      </c>
+      <c r="C9" s="2">
+        <v>16.670000000000002</v>
       </c>
     </row>
   </sheetData>
